--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-Stay.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-Stay.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -841,7 +841,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/OncologyPatient)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/oncology-patient)
 </t>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit)
 </t>
   </si>
   <si>
